--- a/data/output/FV2410_FV2404/UTILMD/55066.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55066.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4790" uniqueCount="362">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="362">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1213,6 +1213,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U211" totalsRowShown="0">
+  <autoFilter ref="A1:U211"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1502,7 +1532,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11770,5 +11803,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55066.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55066.xlsx
@@ -2259,7 +2259,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4781,7 +4781,7 @@
         <v>338</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5163,7 +5163,7 @@
         <v>340</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6063,7 +6063,7 @@
         <v>343</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6267,7 +6267,7 @@
         <v>344</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6487,7 +6487,7 @@
         <v>345</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6707,7 +6707,7 @@
         <v>346</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7089,7 +7089,7 @@
         <v>347</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7293,7 +7293,7 @@
         <v>349</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7497,7 +7497,7 @@
         <v>350</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7697,7 +7697,7 @@
         <v>351</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8005,7 +8005,7 @@
         <v>352</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8487,7 +8487,7 @@
         <v>355</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8749,7 +8749,7 @@
         <v>357</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9011,7 +9011,7 @@
         <v>344</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9211,7 +9211,7 @@
         <v>344</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9411,7 +9411,7 @@
         <v>344</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9611,7 +9611,7 @@
         <v>344</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9915,7 +9915,7 @@
         <v>358</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10223,7 +10223,7 @@
         <v>359</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10485,7 +10485,7 @@
         <v>360</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11359,7 +11359,7 @@
         <v>361</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12233,7 +12233,7 @@
         <v>362</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N209" s="2"/>
